--- a/CSCI 5801 Group 8 P4 Product Backlog.xlsx
+++ b/CSCI 5801 Group 8 P4 Product Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="EXAMPLE Product Backlog" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Product Backlog" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Type">#REF!</definedName>
@@ -56,7 +56,7 @@
     <t>PRIORITY</t>
   </si>
   <si>
-    <t>SPRINT</t>
+    <t xml:space="preserve"> CUR SPRINT</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,6 +319,9 @@
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -763,64 +766,64 @@
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>1.0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <v>0.0</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="7"/>
@@ -839,34 +842,34 @@
     </row>
     <row r="5" ht="24.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2.0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="20">
         <v>0.0</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="7"/>
@@ -885,34 +888,34 @@
     </row>
     <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>3.0</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="20">
         <v>0.0</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="24" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="7"/>
@@ -931,30 +934,30 @@
     </row>
     <row r="7" ht="24.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>4.0</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <v>0.0</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7"/>
@@ -975,22 +978,22 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="32">
         <v>0.0</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="27" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="7"/>
@@ -1011,18 +1014,18 @@
     </row>
     <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <v>0.0</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="7"/>
@@ -1045,18 +1048,18 @@
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="32">
         <v>0.0</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="7"/>
@@ -1079,18 +1082,18 @@
     </row>
     <row r="11" ht="24.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="32">
         <v>0.0</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="7"/>
@@ -1113,18 +1116,18 @@
     </row>
     <row r="12" ht="24.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="22" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="32">
         <v>0.0</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="7"/>
@@ -1147,18 +1150,18 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <v>0.0</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="7"/>
@@ -1181,18 +1184,18 @@
     </row>
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="32">
         <v>0.0</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="7"/>
@@ -1215,18 +1218,18 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="32">
         <v>0.0</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="7"/>
@@ -1249,18 +1252,18 @@
     </row>
     <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="32">
         <v>0.0</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="7"/>
@@ -1283,18 +1286,18 @@
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="32">
         <v>0.0</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="7"/>
@@ -1317,18 +1320,18 @@
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="22" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="32">
         <v>0.0</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="7"/>
@@ -1350,19 +1353,19 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="22" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="32">
         <v>0.0</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="5"/>
@@ -1385,18 +1388,18 @@
     </row>
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="22" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="32">
         <v>0.0</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="7"/>

--- a/CSCI 5801 Group 8 P4 Product Backlog.xlsx
+++ b/CSCI 5801 Group 8 P4 Product Backlog.xlsx
@@ -56,7 +56,7 @@
     <t>PRIORITY</t>
   </si>
   <si>
-    <t xml:space="preserve"> CUR SPRINT</t>
+    <t xml:space="preserve"> SPRINT GOAL</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -113,10 +113,10 @@
     <t>Product functionality requirement is met.</t>
   </si>
   <si>
-    <t>On Hold</t>
+    <t>Overdue</t>
   </si>
   <si>
-    <t>Overdue</t>
+    <t>On Hold</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -176,6 +176,11 @@
       <name val="Century Gothic"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF2E75B5"/>
+      <name val="Century Gothic"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <color theme="0"/>
@@ -320,16 +325,16 @@
     <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -353,19 +358,19 @@
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -953,12 +958,12 @@
       <c r="H7" s="20">
         <v>0.0</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>26</v>
+      <c r="I7" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -990,11 +995,11 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1026,7 +1031,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1060,7 +1065,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1094,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1128,7 +1133,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1162,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1196,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1230,7 +1235,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1264,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1298,7 +1303,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1332,7 +1337,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1366,7 +1371,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1400,7 +1405,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
